--- a/Weekly_Report.xlsx
+++ b/Weekly_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Khalid\Event Discovery and Networking Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2084B54-C4DC-4959-9AD8-B6A0F0C44F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C9D691-4310-455F-A207-C6112E123F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0B43FFE-4F0D-41FD-B09E-9927B07877DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0B43FFE-4F0D-41FD-B09E-9927B07877DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Report" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>Coding HTML Structure</t>
   </si>
   <si>
-    <t>It's time to start coding! We'll begin with the event discovery page. Using the wireframe as a guide, we'll write the HTML code that creates the structure of the page. It might look something like this:</t>
-  </si>
-  <si>
     <t>Implementing CSS Styles</t>
   </si>
   <si>
@@ -189,76 +186,6 @@
     <t>Adding More Pages</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Now that we have the event </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>discovery page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, We will add more pages. We could have a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>recommendations page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that suggests events based on user preferences. Or a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>networking page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> where users can chat with other attendees. Each page will have its own HTML and CSS code.</t>
-    </r>
-  </si>
-  <si>
     <t>Improving Design</t>
   </si>
   <si>
@@ -346,9 +273,6 @@
   <si>
     <t>Week 2
 Design and Wireframing</t>
-  </si>
-  <si>
-    <t>Wireframes for additional pages like recommendations, networking, and feedback will be created.</t>
   </si>
   <si>
     <r>
@@ -396,6 +320,82 @@
       </rPr>
       <t xml:space="preserve"> has a lot of content but sometimes it's hard to find specific events.</t>
     </r>
+  </si>
+  <si>
+    <t>It's time to start coding! We'll begin with the event discovery page (index Page). Using the wireframe as a guide, we'll write the HTML code that creates the structure of the page. It might look something like this:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Now that we have the event </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>discovery page (Index Page)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, We will add more pages. We could have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">recommendations part </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inside the main page that suggests events based on user preferences. We will a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>networking page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where users can chat with other attendees of the events. Each page will have its own HTML and CSS code. We will also add a feedback page wehre users can write their openions about the events they have attended (We think about adding options like *** stars for evaluation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Wireframes for additional pages like  networking, and feedback will be created.</t>
   </si>
 </sst>
 </file>
@@ -552,9 +552,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,6 +570,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,11 +580,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -599,6 +598,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -629,7 +631,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -644,15 +653,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1717,9 +1717,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9973F6F-966D-440C-B9AD-74F10847751C}" name="Table1" displayName="Table1" ref="A1:C29">
   <autoFilter ref="A1:C29" xr:uid="{C9973F6F-966D-440C-B9AD-74F10847751C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E57186B7-1E25-4BDA-8921-7725E1E39B56}" name="Week" totalsRowLabel="Total" dataDxfId="0" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{20796B23-C1D6-43A3-A308-DEE86782D098}" name="Week Subtitle" dataDxfId="1" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3DF0E45E-2F46-4EFF-9513-06FD229EBC1A}" name="Description" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{E57186B7-1E25-4BDA-8921-7725E1E39B56}" name="Week" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{20796B23-C1D6-43A3-A308-DEE86782D098}" name="Week Subtitle" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3DF0E45E-2F46-4EFF-9513-06FD229EBC1A}" name="Description" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4BAB61-7A08-4287-8CAE-BC21D50A8E7F}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,28 +2049,28 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2088,8 +2088,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>55</v>
+      <c r="A6" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -2099,7 +2099,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2108,16 +2108,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
+      <c r="A10" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2137,180 +2137,180 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
+      <c r="A13" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2330,29 +2330,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23392A2B-1076-4C21-A7EB-0F659EFFFE5B}">
   <dimension ref="C3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
